--- a/biology/Zoologie/Hamster_de_Chine/Hamster_de_Chine.xlsx
+++ b/biology/Zoologie/Hamster_de_Chine/Hamster_de_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cricetulus griseus
 Le Hamster de Chine (Cricetulus griseus) est une espèce de Hamsters qui est originaire des déserts du nord de la Chine et de la Mongolie. Le statut d'espèce du hamster de Chine est très discuté. Pour de nombreux auteurs, les études génétiques ne permettent pas de prouver qu'il ne s'agit pas que d'une sous-espèce de Cricetulus barabensis.
-Le Hamster de Chine est aussi appelé Hamster nain de Chine[1] ou Hamster rayé[2].
+Le Hamster de Chine est aussi appelé Hamster nain de Chine ou Hamster rayé.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Poids adulte : 50 - 75 grammes.
 Longueur de la queue : 2 à 3 centimètres.
@@ -549,7 +563,9 @@
           <t>Apparence générale du hamster</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les proportions du corps du hamster chinois, comparé à celles des autres hamsters domestiques, apparaissent longues et minces et ils ont, pour des hamsters, une queue relativement longue. Les mâles ont un scrotum relativement gros et c'était eux qui étaient, autrefois, gardés pour les recherches scientifique.
 Les hamsters chinois ne sont pas associés aux hamsters nains. Le terme « nain » est souvent utilisé pour faire appel aux hamsters de type Phodopus.
@@ -582,7 +598,9 @@
           <t>Caractère en Captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont un tempérament doux mais vif et se maintiennent difficilement en main.
 </t>
@@ -613,7 +631,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gestation : 20 à 22 jours.
 Âge du sevrage : plusieurs semaines (c'est une espèce nidicole). Environ 21 jours</t>
